--- a/Students Social Media Addiction.csv (1).xlsx
+++ b/Students Social Media Addiction.csv (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data anylyst\projects\github project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D585D79A-DCB8-46A3-B211-202575670A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5CDC61-F347-4B4D-9067-36C17C863FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{A362B827-EC15-455F-B79C-52F7062490D1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{A362B827-EC15-455F-B79C-52F7062490D1}"/>
   </bookViews>
   <sheets>
     <sheet name="prviot table" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4353" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4326" uniqueCount="160">
   <si>
     <t>Student_ID</t>
   </si>
@@ -533,259 +533,6 @@
   </si>
   <si>
     <t>Average of Addicted_Score</t>
-  </si>
-  <si>
-    <t>Introduction:</t>
-  </si>
-  <si>
-    <t>This dataset contains information on 34 individuals, including their:</t>
-  </si>
-  <si>
-    <t>Age, Gender, Academic Level, Country</t>
-  </si>
-  <si>
-    <t>Most Used Social Media Platform</t>
-  </si>
-  <si>
-    <t>Addiction Score</t>
-  </si>
-  <si>
-    <r>
-      <t>Other factors</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> like average usage, sleep hours, and relationship status</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">One key area of interest is understanding how </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>addiction to social media</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> varies based on:</t>
-    </r>
-  </si>
-  <si>
-    <t>Solution: Average Addiction Score by Gender &amp; Platform</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Based on the dataset provided in the image, we analyzed the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Addicted_Score</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> by creating a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pivot Table</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with:</t>
-    </r>
-  </si>
-  <si>
-    <t>(Values are based on visible data and rounded to one decimal place.)</t>
-  </si>
-  <si>
-    <t>📌 Key Observations:</t>
-  </si>
-  <si>
-    <r>
-      <t>Instagram</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> has the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>highest average addiction scores</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for both genders.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Females</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> report higher addiction scores on average for most platforms.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>LinkedIn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Twitter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> show the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>lowest addiction scores</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, especially among females.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>TikTok</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is more addictive for </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>males</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> than females in this dataset.</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -19290,16 +19037,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>343239</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>479776</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>154517</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -19314,8 +19061,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="10096839" cy="501650"/>
+          <a:off x="14964833" y="444500"/>
+          <a:ext cx="16820443" cy="514350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19365,9 +19112,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>101133</xdr:rowOff>
+      <xdr:colOff>99785</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>117929</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -19391,13 +19138,650 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5238750" cy="469433"/>
+          <a:ext cx="4962071" cy="671286"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>231775</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642704BC-59D6-CE50-DEBD-602394FA585B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5413375" y="1403350"/>
+          <a:ext cx="914400" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>200526</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>149930</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09B8A7A1-3B41-3EE9-B471-BCEC56BB1038}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="513682"/>
+          <a:ext cx="30881052" cy="11534143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>🔷 Introduction – Social Media and Student Life</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Social media platforms have become deeply integrated into students’ daily lives across the globe.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Common platforms include </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Instagram, TikTok, YouTube, Snapchat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>, and </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>LinkedIn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>This study analyzes responses from </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>40 students</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> across </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>30+ countries</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> and explores the effects of social media on:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Academic performance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Mental health</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sleep patterns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Social behavior</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr lvl="1"/>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>🔷 Key Insights</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Instagram</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> is the most frequently used platform among students.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> Students reporting </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>higher social media use</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> tend to:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Sleep fewer hours</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Have lower mental health scores</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Experience more academic disruption</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Students using </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>LinkedIn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> show:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Higher mental health ratings</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Better sleep patterns</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Lower addiction scores</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Most students in </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>complicated relationships</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> reported higher conflict due to social media use.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Average addiction score</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> across all students: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>6.6 / 10</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1200">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1800" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>🔷 Recommendations / Solutions</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Limit daily social media use through screen-time management tools.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Encourage healthier alternatives such as physical activity, reading, or in-person interaction.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Promote the use of professional platforms (e.g., </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>LinkedIn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>) over highly addictive ones (e.g., </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>TikTok</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Snapchat</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>).</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Educational institutions should offer:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Digital wellness workshops</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Counseling on tech-life balance</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1400">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="742950" lvl="1" indent="-285750">
+            <a:buFont typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:buChar char="•"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="1">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>Mental health resources</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t> tailored to tech-related stress</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -30181,602 +30565,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D22D9D0-D7F3-4261-8EFA-EE51ECF75F63}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
-  <location ref="A36:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0" measureFilter="1">
-      <items count="111">
-        <item x="104"/>
-        <item x="91"/>
-        <item x="86"/>
-        <item x="44"/>
-        <item x="79"/>
-        <item x="5"/>
-        <item x="22"/>
-        <item x="81"/>
-        <item x="57"/>
-        <item x="97"/>
-        <item x="0"/>
-        <item x="74"/>
-        <item x="20"/>
-        <item x="107"/>
-        <item x="52"/>
-        <item x="94"/>
-        <item x="7"/>
-        <item x="68"/>
-        <item x="4"/>
-        <item x="45"/>
-        <item x="15"/>
-        <item x="46"/>
-        <item x="53"/>
-        <item x="65"/>
-        <item x="82"/>
-        <item x="63"/>
-        <item x="18"/>
-        <item x="49"/>
-        <item x="38"/>
-        <item x="69"/>
-        <item x="59"/>
-        <item x="10"/>
-        <item x="80"/>
-        <item x="6"/>
-        <item x="43"/>
-        <item x="24"/>
-        <item x="34"/>
-        <item x="62"/>
-        <item x="58"/>
-        <item x="1"/>
-        <item x="32"/>
-        <item x="101"/>
-        <item x="25"/>
-        <item x="36"/>
-        <item x="12"/>
-        <item x="55"/>
-        <item x="8"/>
-        <item x="99"/>
-        <item x="75"/>
-        <item x="42"/>
-        <item x="93"/>
-        <item x="96"/>
-        <item x="77"/>
-        <item x="70"/>
-        <item x="100"/>
-        <item x="89"/>
-        <item x="71"/>
-        <item x="84"/>
-        <item x="28"/>
-        <item x="109"/>
-        <item x="83"/>
-        <item x="13"/>
-        <item x="73"/>
-        <item x="85"/>
-        <item x="90"/>
-        <item x="39"/>
-        <item x="106"/>
-        <item x="19"/>
-        <item x="26"/>
-        <item x="41"/>
-        <item x="92"/>
-        <item x="17"/>
-        <item x="98"/>
-        <item x="105"/>
-        <item x="54"/>
-        <item x="51"/>
-        <item x="47"/>
-        <item x="31"/>
-        <item x="60"/>
-        <item x="23"/>
-        <item x="95"/>
-        <item x="61"/>
-        <item x="14"/>
-        <item x="87"/>
-        <item x="66"/>
-        <item x="27"/>
-        <item x="64"/>
-        <item x="67"/>
-        <item x="40"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="16"/>
-        <item x="21"/>
-        <item x="103"/>
-        <item x="33"/>
-        <item x="78"/>
-        <item x="29"/>
-        <item x="56"/>
-        <item x="35"/>
-        <item x="37"/>
-        <item x="3"/>
-        <item x="72"/>
-        <item x="50"/>
-        <item x="2"/>
-        <item x="76"/>
-        <item x="88"/>
-        <item x="48"/>
-        <item x="30"/>
-        <item x="102"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="12">
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="93"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Sleep_Hours_Per_Night" fld="8" subtotal="average" baseField="4" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="6">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="16" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="25" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="27" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="38" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="4" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E7263EE-C30B-4A10-9F19-C2E2A324864F}" name="PivotTable3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
-  <location ref="A29:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="13">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="1"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="111">
-        <item x="104"/>
-        <item x="91"/>
-        <item x="86"/>
-        <item x="44"/>
-        <item x="79"/>
-        <item x="5"/>
-        <item x="22"/>
-        <item x="81"/>
-        <item x="57"/>
-        <item x="97"/>
-        <item x="0"/>
-        <item x="74"/>
-        <item x="20"/>
-        <item x="107"/>
-        <item x="52"/>
-        <item x="94"/>
-        <item x="7"/>
-        <item x="68"/>
-        <item x="4"/>
-        <item x="45"/>
-        <item x="15"/>
-        <item x="46"/>
-        <item x="53"/>
-        <item x="65"/>
-        <item x="82"/>
-        <item x="63"/>
-        <item x="18"/>
-        <item x="49"/>
-        <item x="38"/>
-        <item x="69"/>
-        <item x="59"/>
-        <item x="10"/>
-        <item x="80"/>
-        <item x="6"/>
-        <item x="43"/>
-        <item x="24"/>
-        <item x="34"/>
-        <item x="62"/>
-        <item x="58"/>
-        <item x="1"/>
-        <item x="32"/>
-        <item x="101"/>
-        <item x="25"/>
-        <item x="36"/>
-        <item x="12"/>
-        <item x="55"/>
-        <item x="8"/>
-        <item x="99"/>
-        <item x="75"/>
-        <item x="42"/>
-        <item x="93"/>
-        <item x="96"/>
-        <item x="77"/>
-        <item x="70"/>
-        <item x="100"/>
-        <item x="89"/>
-        <item x="71"/>
-        <item x="84"/>
-        <item x="28"/>
-        <item x="109"/>
-        <item x="83"/>
-        <item x="13"/>
-        <item x="73"/>
-        <item x="85"/>
-        <item x="90"/>
-        <item x="39"/>
-        <item x="106"/>
-        <item x="19"/>
-        <item x="26"/>
-        <item x="41"/>
-        <item x="92"/>
-        <item x="17"/>
-        <item x="98"/>
-        <item x="105"/>
-        <item x="54"/>
-        <item x="51"/>
-        <item x="47"/>
-        <item x="31"/>
-        <item x="60"/>
-        <item x="23"/>
-        <item x="95"/>
-        <item x="61"/>
-        <item x="14"/>
-        <item x="87"/>
-        <item x="66"/>
-        <item x="27"/>
-        <item x="64"/>
-        <item x="67"/>
-        <item x="40"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="108"/>
-        <item x="16"/>
-        <item x="21"/>
-        <item x="103"/>
-        <item x="33"/>
-        <item x="78"/>
-        <item x="29"/>
-        <item x="56"/>
-        <item x="35"/>
-        <item x="37"/>
-        <item x="3"/>
-        <item x="72"/>
-        <item x="50"/>
-        <item x="2"/>
-        <item x="76"/>
-        <item x="88"/>
-        <item x="48"/>
-        <item x="30"/>
-        <item x="102"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="13">
-        <item x="4"/>
-        <item x="0"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Mental_Health_Score" fld="9" subtotal="average" baseField="3" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="8">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="9">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="10">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="11">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="3" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C0B2498-E696-409E-8C03-1C277E51D3BE}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6C0B2498-E696-409E-8C03-1C277E51D3BE}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14">
   <location ref="A18:B26" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -31014,8 +30803,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E88E98FA-61B4-4E92-92B9-466A579A6888}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E88E98FA-61B4-4E92-92B9-466A579A6888}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="40">
   <location ref="A3:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -31555,8 +31344,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F423E7AA-ADB8-4D70-B0B9-4566D18774CC}" name="PivotTable6" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F423E7AA-ADB8-4D70-B0B9-4566D18774CC}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
   <location ref="A72:D86" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -31857,8 +31646,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99D3EDAF-F7B7-43C4-956F-00D1DD5F0938}" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{99D3EDAF-F7B7-43C4-956F-00D1DD5F0938}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A52:I66" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -32386,6 +32175,601 @@
 </pivotTableDefinition>
 </file>
 
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3D22D9D0-D7F3-4261-8EFA-EE51ECF75F63}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="42">
+  <location ref="A36:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0" measureFilter="1">
+      <items count="111">
+        <item x="104"/>
+        <item x="91"/>
+        <item x="86"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="81"/>
+        <item x="57"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="107"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="82"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="80"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="12"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="99"/>
+        <item x="75"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="89"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="73"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="106"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="92"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="105"/>
+        <item x="54"/>
+        <item x="51"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="2"/>
+        <item x="76"/>
+        <item x="88"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="102"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="12">
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="86"/>
+    </i>
+    <i>
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="93"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Sleep_Hours_Per_Night" fld="8" subtotal="average" baseField="4" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="6">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="16" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="25" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="27" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="38" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="4" type="count" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0E7263EE-C30B-4A10-9F19-C2E2A324864F}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="16">
+  <location ref="A29:B33" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="13">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="1"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="111">
+        <item x="104"/>
+        <item x="91"/>
+        <item x="86"/>
+        <item x="44"/>
+        <item x="79"/>
+        <item x="5"/>
+        <item x="22"/>
+        <item x="81"/>
+        <item x="57"/>
+        <item x="97"/>
+        <item x="0"/>
+        <item x="74"/>
+        <item x="20"/>
+        <item x="107"/>
+        <item x="52"/>
+        <item x="94"/>
+        <item x="7"/>
+        <item x="68"/>
+        <item x="4"/>
+        <item x="45"/>
+        <item x="15"/>
+        <item x="46"/>
+        <item x="53"/>
+        <item x="65"/>
+        <item x="82"/>
+        <item x="63"/>
+        <item x="18"/>
+        <item x="49"/>
+        <item x="38"/>
+        <item x="69"/>
+        <item x="59"/>
+        <item x="10"/>
+        <item x="80"/>
+        <item x="6"/>
+        <item x="43"/>
+        <item x="24"/>
+        <item x="34"/>
+        <item x="62"/>
+        <item x="58"/>
+        <item x="1"/>
+        <item x="32"/>
+        <item x="101"/>
+        <item x="25"/>
+        <item x="36"/>
+        <item x="12"/>
+        <item x="55"/>
+        <item x="8"/>
+        <item x="99"/>
+        <item x="75"/>
+        <item x="42"/>
+        <item x="93"/>
+        <item x="96"/>
+        <item x="77"/>
+        <item x="70"/>
+        <item x="100"/>
+        <item x="89"/>
+        <item x="71"/>
+        <item x="84"/>
+        <item x="28"/>
+        <item x="109"/>
+        <item x="83"/>
+        <item x="13"/>
+        <item x="73"/>
+        <item x="85"/>
+        <item x="90"/>
+        <item x="39"/>
+        <item x="106"/>
+        <item x="19"/>
+        <item x="26"/>
+        <item x="41"/>
+        <item x="92"/>
+        <item x="17"/>
+        <item x="98"/>
+        <item x="105"/>
+        <item x="54"/>
+        <item x="51"/>
+        <item x="47"/>
+        <item x="31"/>
+        <item x="60"/>
+        <item x="23"/>
+        <item x="95"/>
+        <item x="61"/>
+        <item x="14"/>
+        <item x="87"/>
+        <item x="66"/>
+        <item x="27"/>
+        <item x="64"/>
+        <item x="67"/>
+        <item x="40"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="108"/>
+        <item x="16"/>
+        <item x="21"/>
+        <item x="103"/>
+        <item x="33"/>
+        <item x="78"/>
+        <item x="29"/>
+        <item x="56"/>
+        <item x="35"/>
+        <item x="37"/>
+        <item x="3"/>
+        <item x="72"/>
+        <item x="50"/>
+        <item x="2"/>
+        <item x="76"/>
+        <item x="88"/>
+        <item x="48"/>
+        <item x="30"/>
+        <item x="102"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="13">
+        <item x="4"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Mental_Health_Score" fld="9" subtotal="average" baseField="3" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="8">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="9">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="10">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="11">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="3" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Gender" xr10:uid="{7CF7A1FA-31E3-48DD-AB9F-66E6833E05F9}" sourceName="Gender">
   <pivotTables>
@@ -32874,7 +33258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D442493-9E38-4DBB-9E92-2310548F3C07}">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
@@ -33870,7 +34254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DA57B9A-CBAD-495A-AC87-4F3B8F7FFA08}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
@@ -33893,23 +34277,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37BD156-BC98-4E9B-9070-E78C20DC28C6}">
-  <dimension ref="A4:H42"/>
+  <dimension ref="A3:H42"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>160</v>
-      </c>
+      <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>161</v>
-      </c>
+      <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
@@ -33929,9 +34310,7 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>162</v>
-      </c>
+      <c r="A7" s="8"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -33951,9 +34330,7 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="A9" s="8"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -33973,9 +34350,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>164</v>
-      </c>
+      <c r="A11" s="8"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -33995,9 +34370,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="8" t="s">
-        <v>165</v>
-      </c>
+      <c r="A13" s="8"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -34017,9 +34390,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="6" t="s">
-        <v>166</v>
-      </c>
+      <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -34039,9 +34410,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>2</v>
-      </c>
+      <c r="A17" s="8"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
@@ -34061,9 +34430,7 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>163</v>
-      </c>
+      <c r="A19" s="8"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -34073,137 +34440,70 @@
       <c r="H19" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>168</v>
-      </c>
+      <c r="A21" s="3"/>
     </row>
     <row r="24" spans="1:8" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>30</v>
-      </c>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" s="10">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10">
-        <v>8.4</v>
-      </c>
-      <c r="D27" s="10">
-        <v>4.3</v>
-      </c>
-      <c r="E27" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="F27" s="10">
-        <v>6.3</v>
-      </c>
-      <c r="G27" s="10">
-        <v>4</v>
-      </c>
-      <c r="H27" s="10">
-        <v>2</v>
-      </c>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="10">
-        <v>6</v>
-      </c>
-      <c r="C28" s="10">
-        <v>8</v>
-      </c>
-      <c r="D28" s="10">
-        <v>5.7</v>
-      </c>
-      <c r="E28" s="10">
-        <v>6</v>
-      </c>
-      <c r="F28" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="G28" s="10">
-        <v>2</v>
-      </c>
-      <c r="H28" s="10">
-        <v>5.5</v>
-      </c>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
-        <v>169</v>
-      </c>
+      <c r="A30" s="11"/>
     </row>
     <row r="34" spans="1:1" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>170</v>
-      </c>
+      <c r="A34" s="3"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" s="4"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>171</v>
-      </c>
+      <c r="A36" s="5"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" s="4"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>172</v>
-      </c>
+      <c r="A38" s="5"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="4"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>173</v>
-      </c>
+      <c r="A40" s="5"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A41" s="4"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>174</v>
-      </c>
+      <c r="A42" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34215,7 +34515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00515925-C8EE-4F6D-906E-179A8B556253}">
   <dimension ref="A1:M706"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
